--- a/subgraphs/all/corr_mcrae_wikigiga.xlsx
+++ b/subgraphs/all/corr_mcrae_wikigiga.xlsx
@@ -1700,6 +1700,20 @@
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.288694914516901"/>
+                  <c:y val="0.0628136823806115"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>corr_mcrae_wikigiga.txt!$B$2:$B$516</c:f>
@@ -4818,11 +4832,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073695544"/>
-        <c:axId val="2073687096"/>
+        <c:axId val="2091235096"/>
+        <c:axId val="2091240344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073695544"/>
+        <c:axId val="2091235096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4851,12 +4865,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073687096"/>
+        <c:crossAx val="2091240344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073687096"/>
+        <c:axId val="2091240344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4867,13 +4881,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073695544"/>
+        <c:crossAx val="2091235096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -4966,6 +4984,20 @@
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.291212424413799"/>
+                  <c:y val="0.378618686383714"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>corr_mcrae_wikigiga.txt!$B$2:$B$516</c:f>
@@ -8084,11 +8116,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2069005240"/>
-        <c:axId val="2069043256"/>
+        <c:axId val="2091277192"/>
+        <c:axId val="2091282488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2069005240"/>
+        <c:axId val="2091277192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8117,12 +8149,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069043256"/>
+        <c:crossAx val="2091282488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2069043256"/>
+        <c:axId val="2091282488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8133,13 +8165,21 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069005240"/>
+        <c:crossAx val="2091277192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -8217,6 +8257,20 @@
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.246300665368858"/>
+                  <c:y val="0.258435114503817"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>corr_mcrae_wikigiga.txt!$B$2:$B$516</c:f>
@@ -11335,11 +11389,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2097666616"/>
-        <c:axId val="2074042632"/>
+        <c:axId val="2090448568"/>
+        <c:axId val="2090453848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2097666616"/>
+        <c:axId val="2090448568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11368,12 +11422,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074042632"/>
+        <c:crossAx val="2090453848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2074042632"/>
+        <c:axId val="2090453848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11384,13 +11438,21 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097666616"/>
+        <c:crossAx val="2090448568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -11483,6 +11545,20 @@
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.287644804342639"/>
+                  <c:y val="0.362986408877108"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>corr_mcrae_wikigiga.txt!$B$2:$B$516</c:f>
@@ -14601,11 +14677,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2104309944"/>
-        <c:axId val="2106156152"/>
+        <c:axId val="2091310632"/>
+        <c:axId val="2091313336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2104309944"/>
+        <c:axId val="2091310632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14615,12 +14691,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106156152"/>
+        <c:crossAx val="2091313336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2106156152"/>
+        <c:axId val="2091313336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14631,13 +14707,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104309944"/>
+        <c:crossAx val="2091310632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -15103,7 +15183,7 @@
   <dimension ref="A1:F516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
